--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880724E-3BCB-4DB4-AFC5-0B79C28A7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE9B87-34BF-4860-BDA9-2301C5EC7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>role</t>
   </si>
@@ -127,12 +127,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>AVYield</t>
-  </si>
-  <si>
-    <t>Me Myself and I</t>
-  </si>
-  <si>
     <t>Postdoc</t>
   </si>
   <si>
@@ -205,10 +199,160 @@
     <t>md_file_name</t>
   </si>
   <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>Computers and electronics in Agriculture</t>
+    <t>Nitrogen nutrition index as an in-season N diagnostic method for maize yield response to N fertilization</t>
+  </si>
+  <si>
+    <t>Leonardo Bosche, Federico Gomez, Francisco Palmero, Aidan Kerns, Trevor Hefley, Curtis Ransom, PV Vara Prasad, Bradley Van De Woestyne, Ignacio Ciampitti</t>
+  </si>
+  <si>
+    <t>Field Crops Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fcr.2025.109941</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0378429025002060</t>
+  </si>
+  <si>
+    <t>A global dataset on mungbean for managing seed yield and quality</t>
+  </si>
+  <si>
+    <t>Natalia da Silva Volpato, Federico M Gomez, Víctor D Giménez, Ignacio A Ciampitti</t>
+  </si>
+  <si>
+    <t>Scientific Data</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41597-025-05016-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41597-025-05016-6</t>
+  </si>
+  <si>
+    <t>Spatio-temporal yield variation and precipitation within a field</t>
+  </si>
+  <si>
+    <t>Emmanuela van Versendaal, Carlos M Hernandez, Peter Kyveryga, Trevor Hefley, Bradley W Van De Woestyne, PV Vara Prasad, Ignacio A Ciampitti</t>
+  </si>
+  <si>
+    <t>Computers and Electronics in Agriculture</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.compag.2025.109996</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0168169925001024</t>
+  </si>
+  <si>
+    <t>A digital interactive decision dashboard for crop yield trials</t>
+  </si>
+  <si>
+    <t>Pedro Cisdeli, Gustavo Nocera Santiago, Carlos Hernandez, Ana Carcedo, PV Vara Prasad, Michael Stamm, Jane Lingenfelser, Ignacio Ciampitti</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0168169925001437</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.compag.2025.110037</t>
+  </si>
+  <si>
+    <t>Towards site-specific nutrient management strategies: An open database in Senegal</t>
+  </si>
+  <si>
+    <t>Federico Gomez, Ana Carcedo, Andre Diatta, Pape Djighaly, Latha Nagarajan, Upendra Singh, Zachary Stewart, Shamie Zingore, Kaushik Majumdar, PV Vara Prasad, Ignacio Ciampitti</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0048969725005613</t>
+  </si>
+  <si>
+    <t>Science of The Total Environment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scitotenv.2025.178926</t>
+  </si>
+  <si>
+    <t>Francisco Palmero, Javier A Fernandez, Jeffrey E Habben, Jeffrey R Schussler, Ben Weers, James Bing, Trevor Hefley, PV Vara Prasad, Ignacio A Ciampitti</t>
+  </si>
+  <si>
+    <t>DP202216 maize hybrids shift upper limit of C and N partitioning to grain</t>
+  </si>
+  <si>
+    <t>Frontiers in Plant Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2025.1459126/full</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpls.2025.1459126</t>
+  </si>
+  <si>
+    <t>Benchmarking sorghum and maize for both yield and economic advantage in the US Great Plains</t>
+  </si>
+  <si>
+    <t>Federico Gomez, Juan Manuel Sanchis, Víctor Giménez, Jane Lingenfelser, Ana Carcedo, Ignacio Massigoge, PV Vara Prasad, Ignacio Ciampitti</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0378429025000346</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fcr.2025.109769</t>
+  </si>
+  <si>
+    <t>An in‐silico approach exploring sorghum source: sink balance across sorghum hybrids: How many leaves are enough?</t>
+  </si>
+  <si>
+    <t>Lucia Marziotte, Ana JP Carcedo, Laura Mayor, PV Vara Prasad, Joaquín A Peraza, Ignacio A Ciampitti</t>
+  </si>
+  <si>
+    <t>Crop Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/csc2.21449</t>
+  </si>
+  <si>
+    <t>https://acsess.onlinelibrary.wiley.com/doi/10.1002/csc2.21449</t>
+  </si>
+  <si>
+    <t>Assessing the influence of environmental drivers on soybean seed yield and nitrogen fixation estimates and uncertainties in the United States</t>
+  </si>
+  <si>
+    <t>Luiz Felipe Almeida, Adrian A Correndo, Trevor Hefley, Gabriel Hintz, PV Vara Prasad, Mark Licht, Shaun Casteel, Maninder Singh, Seth Naeve, José Bais, Laura Lindsay, Shawn Conley, Jonathan Kleinjan, Péter Kovács, Ignacio A Ciampitti</t>
+  </si>
+  <si>
+    <t>European Journal of Agronomy</t>
+  </si>
+  <si>
+    <t>Soybean yield and seed quality in equidistant versus non‐equidistant plant arrangements under different densities</t>
+  </si>
+  <si>
+    <t>Emmanuela van Versendaal, Valentina M Pereyra, Trent Irby, Peter Kovacs, Trevor Hefley, PV Vara Prasad, Peter Kyveryga, Bradley W Van De Woestyne, Ignacio A Ciampitti</t>
+  </si>
+  <si>
+    <t>Climate-adaptative management strategies for soybean production under ENSO scenarios in Southern Brazil: An in-silico analysis of crop failure risk</t>
+  </si>
+  <si>
+    <t>Gabriel Hintz, Ana Carcedo, Luiz Felipe Almeida, Geomar Corassa, Tiago Horbe, Luan Pott, Raí Schwalbert, Trevor Hefley, PV Vara Prasad, Ignacio Ciampitti</t>
+  </si>
+  <si>
+    <t>Agricultural Systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.agsy.2024.104153</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0308521X24003032</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/csc2.21364</t>
+  </si>
+  <si>
+    <t>https://acsess.onlinelibrary.wiley.com/doi/full/10.1002/csc2.21364</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.eja.2024.127428</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1161030124003496</t>
   </si>
 </sst>
 </file>
@@ -253,9 +397,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -635,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,10 +865,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,13 +879,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353AB8B-5FB3-4C2E-B56B-5EAF5DE5DE00}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -833,10 +978,10 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -866,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA036B15-B04C-4846-822B-68722C1605FF}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,22 +1050,276 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>2025</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>2025</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
         <v>55</v>
       </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>2025</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>2025</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>2025</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12">
+        <v>2025</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{8C4BE7AD-9B8A-4513-9DEA-B61B3E323081}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.nature.com/articles/s41597-025-05016-6" xr:uid="{C7AA57B3-1C06-4BB6-9862-8384601EF441}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S0168169925001024" xr:uid="{859FBF44-1C93-452B-91CB-9BB83F81709D}"/>
+    <hyperlink ref="G4" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{A18DB132-81A1-4820-B891-024F6151C082}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0168169925001437" xr:uid="{C1AAA1BF-B400-4A93-88F6-75B013DE419F}"/>
+    <hyperlink ref="G5" r:id="rId6" tooltip="Persistent link using digital object identifier" xr:uid="{4E055718-346D-4F36-811E-C7ECF7544DB3}"/>
+    <hyperlink ref="G6" r:id="rId7" tooltip="Persistent link using digital object identifier" xr:uid="{FB2409D0-4274-4D1F-8C28-0CEEA71A65C5}"/>
+    <hyperlink ref="B7" r:id="rId8" display="https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2025.1459126/full" xr:uid="{F6CC753E-1F27-484A-B201-1C2539849190}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{23F20DB4-28CE-4076-83FA-E556423C383F}"/>
+    <hyperlink ref="B8" r:id="rId10" display="https://www.sciencedirect.com/science/article/pii/S0378429025000346" xr:uid="{7358009E-380C-48A7-838A-6F3986ED1656}"/>
+    <hyperlink ref="G8" r:id="rId11" tooltip="Persistent link using digital object identifier" xr:uid="{85066EAD-4FD2-4805-AF6F-B17ABB4DD6B9}"/>
+    <hyperlink ref="B9" r:id="rId12" display="https://acsess.onlinelibrary.wiley.com/doi/abs/10.1002/csc2.21449" xr:uid="{5FAEDD76-8286-42B6-8764-730ABA1F51AF}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{4A2F33D6-9AF0-45A4-832C-38634A17FBDA}"/>
+    <hyperlink ref="B10" r:id="rId14" display="https://www.sciencedirect.com/science/article/pii/S1161030124003496" xr:uid="{C7736048-9942-49FA-89DB-889445CE9CAD}"/>
+    <hyperlink ref="B11" r:id="rId15" display="https://acsess.onlinelibrary.wiley.com/doi/abs/10.1002/csc2.21364" xr:uid="{98D8D144-03F4-4E91-954D-63328DF26A03}"/>
+    <hyperlink ref="B12" r:id="rId16" display="https://www.sciencedirect.com/science/article/pii/S0308521X24003032" xr:uid="{463418F6-191F-4AE4-B97E-C8C9A45547DC}"/>
+    <hyperlink ref="G12" r:id="rId17" tooltip="Persistent link using digital object identifier" xr:uid="{868AEF71-274B-4430-809C-63E8ACA5B3D4}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{99FDAF04-1BE3-4283-8F42-9727449FC8B3}"/>
+    <hyperlink ref="G10" r:id="rId19" tooltip="Persistent link using digital object identifier" xr:uid="{0D6164FE-0D41-4542-95FF-835BF51F3784}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE9B87-34BF-4860-BDA9-2301C5EC7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A023D9-111B-41D2-8FC8-1063248C4BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15345" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>role</t>
   </si>
@@ -130,9 +128,6 @@
     <t>Postdoc</t>
   </si>
   <si>
-    <t>Agronomist from Maringá, Brazil. Experienced in cropping systems, plant breeding, and seed tech.</t>
-  </si>
-  <si>
     <t>Agronomist from Arapongas, Brazil. Focused on crop modeling and digital ag, with experience in fatty acid analysis and on-farm data.</t>
   </si>
   <si>
@@ -353,13 +348,46 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S1161030124003496</t>
+  </si>
+  <si>
+    <t>ignacio_ciampitti.jpg</t>
+  </si>
+  <si>
+    <t>gustavo_santiago.jpg</t>
+  </si>
+  <si>
+    <t>thatiane_pereira.jpg</t>
+  </si>
+  <si>
+    <t>german_mandrini.png</t>
+  </si>
+  <si>
+    <t>leonardo_bosche.jpg</t>
+  </si>
+  <si>
+    <t>franco_murinigo.jpg</t>
+  </si>
+  <si>
+    <t>natalia_volpato.jpg</t>
+  </si>
+  <si>
+    <t>federico_gomez.jpg</t>
+  </si>
+  <si>
+    <t>priscila_cano.jpg</t>
+  </si>
+  <si>
+    <t>pedro_cisdeli.png</t>
+  </si>
+  <si>
+    <t>Agronomist developing decision support models for precision nitrogen management in corn. Integrates crop physiology, sensing technologies, and statistics to improve productivity while reducing environmental impact.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,21 +766,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -763,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -780,16 +808,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -799,14 +830,17 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -816,14 +850,17 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -833,14 +870,17 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -850,14 +890,17 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -867,11 +910,14 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -881,14 +927,17 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -898,14 +947,17 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,11 +967,14 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
       <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -929,11 +984,14 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -956,15 +1014,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -978,16 +1036,16 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1013,16 +1071,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA036B15-B04C-4846-822B-68722C1605FF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1045,257 +1103,257 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
       <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
       </c>
       <c r="E4">
         <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>2025</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>2025</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>2025</v>
       </c>
       <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
       </c>
       <c r="E10">
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A023D9-111B-41D2-8FC8-1063248C4BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBCEF4-FEB6-45CD-BB68-5BBA2717F18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15345" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -377,17 +377,17 @@
     <t>priscila_cano.jpg</t>
   </si>
   <si>
-    <t>pedro_cisdeli.png</t>
-  </si>
-  <si>
     <t>Agronomist developing decision support models for precision nitrogen management in corn. Integrates crop physiology, sensing technologies, and statistics to improve productivity while reducing environmental impact.</t>
+  </si>
+  <si>
+    <t>pedro_cisdeli.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,10 +425,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,21 +765,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -800,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -820,7 +819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -831,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
@@ -840,7 +839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -860,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -877,10 +876,10 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -900,7 +899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -917,7 +916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -937,7 +936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -957,7 +956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -974,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1014,15 +1013,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1075,12 +1074,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1195,11 +1194,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
@@ -1218,7 +1217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBCEF4-FEB6-45CD-BB68-5BBA2717F18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E960F5-1099-449A-BB53-A3CCBF65771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="25605" yWindow="900" windowWidth="12615" windowHeight="19785" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>ML engineer bridging computer science and agronomy. Focused on computer vision, 3D reconstruction, data analysis and precision ag.</t>
   </si>
   <si>
-    <t>Researches sustainable ag systems using modeling, remote sensing, and digital tools to understand impacts from field to global scale.</t>
-  </si>
-  <si>
     <t>Focuses on crop modeling and data analysis. Background in agronomy with research on yield gaps, nutrient dynamics, and malting barley quality.</t>
   </si>
   <si>
@@ -381,13 +378,16 @@
   </si>
   <si>
     <t>pedro_cisdeli.jpg</t>
+  </si>
+  <si>
+    <t>Combining expertise in agronomy, remote sensing &amp; geographic information systems, and economics. Current research efforts are directed toward the sustainable intensification of agricultural systems and digital agriculture.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,9 +425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,21 +768,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -790,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -807,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -830,16 +833,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,16 +853,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -870,16 +873,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -890,16 +893,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -910,13 +913,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -927,16 +930,16 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -947,16 +950,16 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -967,13 +970,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -984,13 +987,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1013,15 +1016,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1035,16 +1038,16 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1074,12 +1077,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1102,257 +1105,257 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
       <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
       <c r="E4">
         <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>2025</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>2025</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>2025</v>
       </c>
       <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
       </c>
       <c r="E10">
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E960F5-1099-449A-BB53-A3CCBF65771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79844157-B55F-489B-9516-44DB524ADBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="900" windowWidth="12615" windowHeight="19785" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="14445" yWindow="900" windowWidth="14160" windowHeight="16185" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>role</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Combining expertise in agronomy, remote sensing &amp; geographic information systems, and economics. Current research efforts are directed toward the sustainable intensification of agricultural systems and digital agriculture.</t>
+  </si>
+  <si>
+    <t>hello_world.md</t>
+  </si>
+  <si>
+    <t>hello_word.png</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1012,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353AB8B-5FB3-4C2E-B56B-5EAF5DE5DE00}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1062,6 +1068,12 @@
       </c>
       <c r="E2" t="s">
         <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79844157-B55F-489B-9516-44DB524ADBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB129C-5258-40F8-BC4D-C1D80C5B47ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="900" windowWidth="14160" windowHeight="16185" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
   <si>
     <t>role</t>
   </si>
@@ -101,12 +101,6 @@
     <t>img_file_name</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>This is a test</t>
-  </si>
-  <si>
     <t>May 08, 2025</t>
   </si>
   <si>
@@ -386,14 +380,23 @@
     <t>hello_world.md</t>
   </si>
   <si>
-    <t>hello_word.png</t>
+    <t>hello_world.png</t>
+  </si>
+  <si>
+    <t>We’re thrilled to join Purdue University and to unveil our redesigned online home.</t>
+  </si>
+  <si>
+    <t>A New Chapter: Ciampitti Lab Moves to Purdue &amp; Launches a Fresh Website</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,17 +781,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -799,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -816,19 +819,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -839,16 +842,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -859,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -879,16 +882,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -899,16 +902,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -916,16 +919,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -933,19 +936,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -953,19 +956,19 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -976,13 +979,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -993,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1019,18 +1022,18 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1044,36 +1047,36 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1089,12 +1092,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1102,272 +1105,272 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
       <c r="E4">
         <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>2025</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
       </c>
       <c r="E6">
         <v>2025</v>
       </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>2025</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
       </c>
       <c r="E10">
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB129C-5258-40F8-BC4D-C1D80C5B47ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F07EFD-7A65-47D1-B564-0E3BDA4AB392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>img_file_name</t>
   </si>
   <si>
-    <t>May 08, 2025</t>
-  </si>
-  <si>
     <t>authors</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>May 15, 2025</t>
   </si>
 </sst>
 </file>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -819,16 +819,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,13 +902,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,16 +936,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -956,16 +956,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1047,10 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -1061,22 +1061,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
       <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1105,19 +1105,19 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,22 +1125,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,22 +1148,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,22 +1171,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
       </c>
       <c r="E4">
         <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1194,22 +1194,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>2025</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,22 +1217,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>2025</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,22 +1240,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
       <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,22 +1263,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>2025</v>
       </c>
       <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,22 +1286,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,22 +1309,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
       </c>
       <c r="E10">
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,22 +1332,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,22 +1355,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F07EFD-7A65-47D1-B564-0E3BDA4AB392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ADFE9-38E5-4379-AB0E-489C7BA0C9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>Postdoc</t>
   </si>
   <si>
-    <t>Agronomist from Arapongas, Brazil. Focused on crop modeling and digital ag, with experience in fatty acid analysis and on-farm data.</t>
-  </si>
-  <si>
     <t>Biosystems Engineer researching digital agronomy. Works with sensors, web/mobile apps, computer vision, and AI for ag.</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>May 15, 2025</t>
+  </si>
+  <si>
+    <t>Agronomist researching sustainable corn-soybean systems, using digital tools to assess how crop rotation, cover crops, and nitrogen management impact soil health, environmental resilience, and overall farm productivity and profitability.</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -819,16 +819,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,13 +902,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,13 +939,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -959,13 +959,13 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353AB8B-5FB3-4C2E-B56B-5EAF5DE5DE00}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1047,10 +1047,10 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -1061,22 +1061,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
       <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1125,22 +1125,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,22 +1148,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,22 +1171,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
       <c r="E4">
         <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1194,22 +1194,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>2025</v>
       </c>
       <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,22 +1217,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>2025</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,22 +1240,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
       <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,22 +1263,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>2025</v>
       </c>
       <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,22 +1286,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,22 +1309,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
         <v>86</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
       </c>
       <c r="E10">
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,22 +1332,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,22 +1355,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ADFE9-38E5-4379-AB0E-489C7BA0C9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE94DFC-16B5-4CAD-AC76-A26ADFBC5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>role</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>Agronomist researching sustainable corn-soybean systems, using digital tools to assess how crop rotation, cover crops, and nitrogen management impact soil health, environmental resilience, and overall farm productivity and profitability.</t>
+  </si>
+  <si>
+    <t>francisco_palmero.jpg</t>
+  </si>
+  <si>
+    <t>Francisco Palmero</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/francisco-palmero-6b8826170/</t>
+  </si>
+  <si>
+    <t>Focuses on applied statistics for agriculture-related problems, with emphasis on nitrogen management and corn physiology. Background in the role of legume crops in soil nitrogen budgets within agricultural systems.</t>
   </si>
 </sst>
 </file>
@@ -775,15 +787,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -933,56 +945,59 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,18 +1005,35 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>101</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1010,8 +1042,7 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{AAA55F43-9F3C-40DB-9B47-46AAC432FF09}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{A94255E5-8ECE-483E-BE8F-EE9B37DAE260}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{F9808E56-71B8-4EF9-927B-9D68DAE7673D}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{F482682B-7EA6-4322-99D1-4928E3914F09}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{12A704E9-6647-4B36-9BA4-2702987CAED0}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE94DFC-16B5-4CAD-AC76-A26ADFBC5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC15B88-6FE2-481D-B387-4E282561B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
   <si>
     <t>role</t>
   </si>
@@ -402,13 +402,37 @@
   </si>
   <si>
     <t>Focuses on applied statistics for agriculture-related problems, with emphasis on nitrogen management and corn physiology. Background in the role of legume crops in soil nitrogen budgets within agricultural systems.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/diogo-verzegnazzi-555418239/</t>
+  </si>
+  <si>
+    <t>Diogo Verzegnazzi</t>
+  </si>
+  <si>
+    <t>diogo_verzegnazzi.jpg</t>
+  </si>
+  <si>
+    <t>Caetano Rocha</t>
+  </si>
+  <si>
+    <t>caetano_rocha.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/caetano-rocha-9087b0319/</t>
+  </si>
+  <si>
+    <t>Agronomy undergraduate from University of Santa Maria with experience in field crops. Supports field operations through crop monitoring, data collection, and hands-on agricultural practices across research sites.</t>
+  </si>
+  <si>
+    <t>Agronomy undergraduate from University of Santa Maria with experience in field crops and soil science. Supports field operations through crop monitoring, data collection, and hands-on agricultural practices across research sites.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,23 +811,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -823,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -843,7 +867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -863,7 +887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -903,7 +927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -923,7 +947,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -940,7 +964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -960,7 +984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -980,7 +1004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1000,40 +1024,80 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1056,15 +1120,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1123,12 +1187,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1174,7 +1238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1197,7 +1261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1220,7 +1284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1243,7 +1307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1266,7 +1330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,7 +1353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1312,7 +1376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1335,7 +1399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1358,7 +1422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1381,7 +1445,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC15B88-6FE2-481D-B387-4E282561B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C9278-9448-434D-A41A-AED5EFB4C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
   <si>
     <t>role</t>
   </si>
@@ -426,13 +426,37 @@
   </si>
   <si>
     <t>Agronomy undergraduate from University of Santa Maria with experience in field crops and soil science. Supports field operations through crop monitoring, data collection, and hands-on agricultural practices across research sites.</t>
+  </si>
+  <si>
+    <t>Roberto Romero</t>
+  </si>
+  <si>
+    <t>roberto_carlos.jpg</t>
+  </si>
+  <si>
+    <t>Passionate about agriculture, innovation, and exploration. Always eager to learn and take on new challenges in agronomy and agricultural advancement. Supports field operations through crop monitoring, data collection, and hands-on agricultural practices across research sites.</t>
+  </si>
+  <si>
+    <t>Trends in agricultural technology: a review of US patents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Priscila B. Cano, Ana J. P. Carcedo, Carlos M. Hernandez, Federico M. Gomez, Victor D. Gimenez, Peter M. Kyveryga &amp; Ignacio A. Ciampitti </t>
+  </si>
+  <si>
+    <t>Precision Agriculture</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11119-025-10257-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11119-025-10257-x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,23 +835,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -847,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -867,7 +891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -887,7 +911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -907,7 +931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -927,7 +951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -947,7 +971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -964,7 +988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1044,7 +1068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1081,23 +1105,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1120,15 +1161,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1181,18 +1222,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA036B15-B04C-4846-822B-68722C1605FF}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1215,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1238,7 +1279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1261,7 +1302,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1284,7 +1325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1307,7 +1348,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1330,7 +1371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1353,7 +1394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1376,7 +1417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1399,7 +1440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1422,7 +1463,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1445,7 +1486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1466,6 +1507,29 @@
       </c>
       <c r="G12" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13">
+        <v>2025</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C9278-9448-434D-A41A-AED5EFB4C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99ABA72-2517-4BEB-A412-1FF2AC08EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>role</t>
   </si>
@@ -450,13 +450,16 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/s11119-025-10257-x</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/roberto-carlos-romero-palomeque-831917252?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,21 +840,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -871,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,7 +894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -911,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -931,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -951,7 +954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -971,7 +974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -988,7 +991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1118,11 +1121,14 @@
       <c r="D14" t="s">
         <v>131</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="F14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1148,6 +1154,7 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{A94255E5-8ECE-483E-BE8F-EE9B37DAE260}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{F9808E56-71B8-4EF9-927B-9D68DAE7673D}"/>
     <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1161,15 +1168,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1224,16 +1231,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA036B15-B04C-4846-822B-68722C1605FF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1394,7 +1401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99ABA72-2517-4BEB-A412-1FF2AC08EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC5BBE-EF8D-4771-9092-729E2F0C8E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>role</t>
   </si>
@@ -453,6 +453,18 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/roberto-carlos-romero-palomeque-831917252?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Maize ear sensing for on-farm yield predictions</t>
+  </si>
+  <si>
+    <t>Pedro Cisdeli, Gustavo Nocera Santiago, German Mandrini, Ignacio Ciampitti</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/CVPR2025W/V4A/papers/Cisdeli_Maize_ear_sensing_for_on-farm_yield_predictions_CVPRW_2025_paper.pdf</t>
+  </si>
+  <si>
+    <t>CVPR Workshop Proceedings</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -854,7 +866,7 @@
     <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -874,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -894,7 +906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -914,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -934,7 +946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -954,7 +966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -974,7 +986,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1229,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA036B15-B04C-4846-822B-68722C1605FF}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1538,6 +1550,27 @@
       <c r="G13" t="s">
         <v>137</v>
       </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14">
+        <v>2025</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1560,6 +1593,7 @@
     <hyperlink ref="G12" r:id="rId17" tooltip="Persistent link using digital object identifier" xr:uid="{868AEF71-274B-4430-809C-63E8ACA5B3D4}"/>
     <hyperlink ref="G11" r:id="rId18" xr:uid="{99FDAF04-1BE3-4283-8F42-9727449FC8B3}"/>
     <hyperlink ref="G10" r:id="rId19" tooltip="Persistent link using digital object identifier" xr:uid="{0D6164FE-0D41-4542-95FF-835BF51F3784}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{AADF931D-4266-4A89-BA09-4C7856B2F63D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC5BBE-EF8D-4771-9092-729E2F0C8E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612ED91-E8CB-4D04-8578-ED9F831D9385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>role</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>CVPR Workshop Proceedings</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>ciampitti-lab-new-chapter</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353AB8B-5FB3-4C2E-B56B-5EAF5DE5DE00}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1188,7 +1194,7 @@
     <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1196,22 +1202,25 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1219,18 +1228,21 @@
         <v>114</v>
       </c>
       <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1243,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA036B15-B04C-4846-822B-68722C1605FF}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612ED91-E8CB-4D04-8578-ED9F831D9385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883714F5-9222-426C-8F19-C34A9AC40C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>role</t>
   </si>
@@ -471,13 +471,31 @@
   </si>
   <si>
     <t>ciampitti-lab-new-chapter</t>
+  </si>
+  <si>
+    <t>building-for-apple-vision-pro-1</t>
+  </si>
+  <si>
+    <t>Short series documenting Pedro Cisdeli's hands‑on journey building ag‑tech tools for Apple Vision Pro</t>
+  </si>
+  <si>
+    <t>June 27, 2025</t>
+  </si>
+  <si>
+    <t>developing_for_avp_part_1.md</t>
+  </si>
+  <si>
+    <t>developing_for_avp_part_1.png</t>
+  </si>
+  <si>
+    <t>Building for Apple Vision Pro: Part 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,17 +880,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -892,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -912,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -932,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -952,7 +970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -972,7 +990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1029,7 +1047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1049,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1146,7 +1164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1180,21 +1198,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353AB8B-5FB3-4C2E-B56B-5EAF5DE5DE00}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1244,6 +1262,32 @@
       </c>
       <c r="H2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1259,12 +1303,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1310,7 +1354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1333,7 +1377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1356,7 +1400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1379,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1402,7 +1446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1425,7 +1469,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1448,7 +1492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1471,7 +1515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1494,7 +1538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1517,7 +1561,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1540,7 +1584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1563,7 +1607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pedro\Ciampitti_Lab\ciampitti-lab.github.io\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883714F5-9222-426C-8F19-C34A9AC40C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB619B-AAA1-4531-BDBC-2B3F0E65C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -476,9 +476,6 @@
     <t>building-for-apple-vision-pro-1</t>
   </si>
   <si>
-    <t>Short series documenting Pedro Cisdeli's hands‑on journey building ag‑tech tools for Apple Vision Pro</t>
-  </si>
-  <si>
     <t>June 27, 2025</t>
   </si>
   <si>
@@ -489,13 +486,16 @@
   </si>
   <si>
     <t>Building for Apple Vision Pro: Part 1</t>
+  </si>
+  <si>
+    <t>Short series documenting Pedro Cisdeli's hands-on journey building ag-tech tools for Apple Vision Pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,17 +880,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -910,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -930,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -970,7 +970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -990,7 +990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1201,18 +1201,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1264,30 +1264,30 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
         <v>145</v>
       </c>
       <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
         <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
       </c>
       <c r="G3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" t="s">
         <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1303,12 +1303,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB619B-AAA1-4531-BDBC-2B3F0E65C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ACD510-ACB0-48AC-AFAE-1AFE2EDF1D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="13656" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
   <si>
     <t>role</t>
   </si>
@@ -489,6 +492,21 @@
   </si>
   <si>
     <t>Short series documenting Pedro Cisdeli's hands-on journey building ag-tech tools for Apple Vision Pro</t>
+  </si>
+  <si>
+    <t>Juan Fiore</t>
+  </si>
+  <si>
+    <t>jorge_jola.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jjola-unal/</t>
+  </si>
+  <si>
+    <t>Jorge Jola</t>
+  </si>
+  <si>
+    <t>Undergraduate student in Agronomic Engineering at the National University of Colombia, with experience in agronomic data analysis. Skilled in statistics, Web applications, and the application of machine learning in agriculture.</t>
   </si>
 </sst>
 </file>
@@ -874,23 +892,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -910,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -930,7 +948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -950,7 +968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -970,7 +988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1010,7 +1028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1067,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1107,7 +1125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1132,55 +1150,86 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1190,7 +1239,8 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{A94255E5-8ECE-483E-BE8F-EE9B37DAE260}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{F9808E56-71B8-4EF9-927B-9D68DAE7673D}"/>
     <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
+    <hyperlink ref="E14" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1200,16 +1250,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353AB8B-5FB3-4C2E-B56B-5EAF5DE5DE00}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1303,7 +1353,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ACD510-ACB0-48AC-AFAE-1AFE2EDF1D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05574728-4A58-42FA-B16A-6DEFCF232128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="13656" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
   <si>
     <t>role</t>
   </si>
@@ -507,6 +507,15 @@
   </si>
   <si>
     <t>Undergraduate student in Agronomic Engineering at the National University of Colombia, with experience in agronomic data analysis. Skilled in statistics, Web applications, and the application of machine learning in agriculture.</t>
+  </si>
+  <si>
+    <t>Vlasis Mangidis</t>
+  </si>
+  <si>
+    <t>Data Scientist with a background in Agricultural Engineering and precision agriculture. Focuses on geospatial analytics and remote sensing using multispectral imagery. Experienced in Python, GIS, and database optimization to develop digital tools for vegetation analysis and decision support in agriculture.</t>
+  </si>
+  <si>
+    <t>vlasis_mangidis.jpg</t>
   </si>
 </sst>
 </file>
@@ -892,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1231,6 +1240,23 @@
       </c>
       <c r="F17" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05574728-4A58-42FA-B16A-6DEFCF232128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1857F5A-3FFE-44ED-B81E-2E636A9F6715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
   <si>
     <t>role</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>vlasis_mangidis.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vlasis-m-00537416b</t>
   </si>
 </sst>
 </file>
@@ -1255,6 +1258,9 @@
       <c r="D18" t="s">
         <v>158</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F18" t="s">
         <v>157</v>
       </c>
@@ -1267,6 +1273,7 @@
     <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
     <hyperlink ref="E16" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
     <hyperlink ref="E14" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1857F5A-3FFE-44ED-B81E-2E636A9F6715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0852F-36AE-4451-95A5-66D0266CD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
   <si>
     <t>role</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/vlasis-m-00537416b</t>
+  </si>
+  <si>
+    <t>Norman Menocal</t>
+  </si>
+  <si>
+    <t>norman_menocal.jpg</t>
+  </si>
+  <si>
+    <t>I am an agronomist interested in sustainable agriculture and the use of new technologies to improve the yield of agronomic crops. I have hands-on experience in fields crops, data collection, harvesting and pesticides applications, gained through academic projects and internship.</t>
   </si>
 </sst>
 </file>
@@ -904,20 +913,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1097,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1210,19 +1219,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1230,19 +1236,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
+        <v>131</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1250,18 +1256,38 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1271,9 +1297,9 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{A94255E5-8ECE-483E-BE8F-EE9B37DAE260}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{F9808E56-71B8-4EF9-927B-9D68DAE7673D}"/>
     <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
     <hyperlink ref="E14" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1287,12 +1313,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1386,7 +1412,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0852F-36AE-4451-95A5-66D0266CD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F45EA5-D6AB-49C6-9436-A54AE7033D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="168">
   <si>
     <t>role</t>
   </si>
@@ -528,6 +528,21 @@
   </si>
   <si>
     <t>I am an agronomist interested in sustainable agriculture and the use of new technologies to improve the yield of agronomic crops. I have hands-on experience in fields crops, data collection, harvesting and pesticides applications, gained through academic projects and internship.</t>
+  </si>
+  <si>
+    <t>juan_fiore.png</t>
+  </si>
+  <si>
+    <t>Juan Douglas</t>
+  </si>
+  <si>
+    <t>juan_douglas.jpg</t>
+  </si>
+  <si>
+    <t>Agronomist graduated from the National University of Córdoba. Focused on digital agriculture with experience in Python and programming for agricultural applications. Areas of contribution include data management, digital tools, and the integration of technology into agricultural systems.</t>
+  </si>
+  <si>
+    <t>Agronomical Engineering undergraduate student from the national university of Colombia, passionate and skilled in fertigation, irrigation, soil physics, and the use of data in agriculture</t>
   </si>
 </sst>
 </file>
@@ -913,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1171,10 +1186,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1182,19 +1203,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1202,16 +1220,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>152</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1219,16 +1240,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1236,19 +1257,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1256,19 +1274,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
+        <v>131</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1276,18 +1294,38 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1297,9 +1335,9 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{A94255E5-8ECE-483E-BE8F-EE9B37DAE260}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{F9808E56-71B8-4EF9-927B-9D68DAE7673D}"/>
     <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
-    <hyperlink ref="E14" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
+    <hyperlink ref="E15" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F45EA5-D6AB-49C6-9436-A54AE7033D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E429D8-5D80-4593-9496-B1082A0BAA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15285" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="169">
   <si>
     <t>role</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>Agronomical Engineering undergraduate student from the national university of Colombia, passionate and skilled in fertigation, irrigation, soil physics, and the use of data in agriculture</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/juan-camilo-douglas-bolano-157646293/</t>
   </si>
 </sst>
 </file>
@@ -930,18 +933,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="182.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1121,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1193,6 +1196,9 @@
       </c>
       <c r="D13" t="s">
         <v>165</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F13" t="s">
         <v>167</v>
@@ -1338,6 +1344,7 @@
     <hyperlink ref="E18" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
     <hyperlink ref="E15" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
     <hyperlink ref="E20" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{C20D33EE-D7E5-4CF8-918D-658532FE0616}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1351,12 +1358,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1450,7 +1457,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>

--- a/public/data/info.xlsx
+++ b/public/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cisdeli\Purdue\CiampittiLab\ciampitti-lab.github.io\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E429D8-5D80-4593-9496-B1082A0BAA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D56A7-DBBB-421C-9B21-E90A98FDE59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15285" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{680A29BD-E113-4DFE-A325-D924D35BBF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="157">
   <si>
     <t>role</t>
   </si>
@@ -393,42 +393,6 @@
   </si>
   <si>
     <t>Agronomist researching sustainable corn-soybean systems, using digital tools to assess how crop rotation, cover crops, and nitrogen management impact soil health, environmental resilience, and overall farm productivity and profitability.</t>
-  </si>
-  <si>
-    <t>francisco_palmero.jpg</t>
-  </si>
-  <si>
-    <t>Francisco Palmero</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/francisco-palmero-6b8826170/</t>
-  </si>
-  <si>
-    <t>Focuses on applied statistics for agriculture-related problems, with emphasis on nitrogen management and corn physiology. Background in the role of legume crops in soil nitrogen budgets within agricultural systems.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/diogo-verzegnazzi-555418239/</t>
-  </si>
-  <si>
-    <t>Diogo Verzegnazzi</t>
-  </si>
-  <si>
-    <t>diogo_verzegnazzi.jpg</t>
-  </si>
-  <si>
-    <t>Caetano Rocha</t>
-  </si>
-  <si>
-    <t>caetano_rocha.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/caetano-rocha-9087b0319/</t>
-  </si>
-  <si>
-    <t>Agronomy undergraduate from University of Santa Maria with experience in field crops. Supports field operations through crop monitoring, data collection, and hands-on agricultural practices across research sites.</t>
-  </si>
-  <si>
-    <t>Agronomy undergraduate from University of Santa Maria with experience in field crops and soil science. Supports field operations through crop monitoring, data collection, and hands-on agricultural practices across research sites.</t>
   </si>
   <si>
     <t>Roberto Romero</t>
@@ -931,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB64B1-8415-484E-B4A1-A632CC3BB222}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1089,59 +1053,59 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1149,19 +1113,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1169,19 +1130,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1189,19 +1150,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1209,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1226,19 +1184,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1246,16 +1204,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1263,76 +1224,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>146</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1340,11 +1244,11 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{AAA55F43-9F3C-40DB-9B47-46AAC432FF09}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{A94255E5-8ECE-483E-BE8F-EE9B37DAE260}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{F9808E56-71B8-4EF9-927B-9D68DAE7673D}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
-    <hyperlink ref="E15" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{C20D33EE-D7E5-4CF8-918D-658532FE0616}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{2A6658AF-7FC0-4FB5-9A94-14DD4D416741}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{D4CFB1C7-1AE1-491B-850A-B6BFAE8BB6A7}"/>
+    <hyperlink ref="E12" r:id="rId6" tooltip="https://www.linkedin.com/in/jjola-unal/" xr:uid="{9B18B642-568C-42D5-8EB7-C9BF52A122A6}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{83DA2968-3BAC-44C7-87DD-D7D2815CABF1}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{C20D33EE-D7E5-4CF8-918D-658532FE0616}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1374,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -1400,7 +1304,7 @@
         <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>113</v>
@@ -1423,25 +1327,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1743,22 +1647,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <v>2025</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1766,19 +1670,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>2025</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G14" s="1"/>
     </row>
